--- a/curation/PAGE_curation_table.xlsx
+++ b/curation/PAGE_curation_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B24AA9E-A33D-8041-8482-85835A3E59A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7A459E70-5653-AD4D-A48E-322F9C1EF386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50380" yWindow="10260" windowWidth="26840" windowHeight="15540"/>
+    <workbookView xWindow="-28020" yWindow="5740" windowWidth="26840" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE Curations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>FACS sorted cell population</t>
   </si>
@@ -148,9 +148,6 @@
     <t>All observations are for a single publication</t>
   </si>
   <si>
-    <t>All observations are for a single curator with orcid id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Step 1: </t>
   </si>
   <si>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>PAGE Curations</t>
+  </si>
+  <si>
+    <t>All observations are for a single curator with orcid id. Get your orcid id here: https://orcid.org/register</t>
+  </si>
+  <si>
+    <t>Copy this table into the issue tracker</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -768,19 +771,16 @@
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,67 +1156,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>50</v>
+      <c r="A1" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
-        <v>48</v>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -1225,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -1236,19 +1233,24 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">

--- a/curation/PAGE_curation_table.xlsx
+++ b/curation/PAGE_curation_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7A459E70-5653-AD4D-A48E-322F9C1EF386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48088A-CBC2-304D-A9F4-1CAE1EA5EC03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="5740" windowWidth="26840" windowHeight="15540"/>
+    <workbookView xWindow="-47860" yWindow="17820" windowWidth="26840" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE Curations" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="Life Cycle Types" sheetId="3" r:id="rId3"/>
     <sheet name="Experimental Evidence Type" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>FACS sorted cell population</t>
   </si>
@@ -52,12 +63,6 @@
     <t>cDNA to DNA expression microarray evidence</t>
   </si>
   <si>
-    <t>PLANA TERM ID</t>
-  </si>
-  <si>
-    <t>PLANA TERM LABEL</t>
-  </si>
-  <si>
     <t>Specimen Type</t>
   </si>
   <si>
@@ -151,9 +156,6 @@
     <t xml:space="preserve">Step 1: </t>
   </si>
   <si>
-    <t>Step 2:</t>
-  </si>
-  <si>
     <t>Step 3:</t>
   </si>
   <si>
@@ -166,26 +168,59 @@
     <t>Enter PMID --&gt;</t>
   </si>
   <si>
-    <t>Enter your orcid --&gt;</t>
-  </si>
-  <si>
-    <t>In table, enter anatomical terms. Visit EBI OLS to identify an anatomical terms.</t>
-  </si>
-  <si>
     <t>PAGE Curations</t>
   </si>
   <si>
-    <t>All observations are for a single curator with orcid id. Get your orcid id here: https://orcid.org/register</t>
-  </si>
-  <si>
     <t>Copy this table into the issue tracker</t>
+  </si>
+  <si>
+    <t>In table, enter anatomical terms. Visit EBI OLS to identify anatomical terms.</t>
+  </si>
+  <si>
+    <t>Published transcript ID</t>
+  </si>
+  <si>
+    <t>Step 5:</t>
+  </si>
+  <si>
+    <t>PLANA TERM ID (PLANA:0000429)</t>
+  </si>
+  <si>
+    <t>PLANA TERM LABEL (neoblast)</t>
+  </si>
+  <si>
+    <t>Enter your expression observation curations into table below and copy and paste into issue tracker</t>
+  </si>
+  <si>
+    <t>Go to issue tracker</t>
+  </si>
+  <si>
+    <t>All observations are for a single curator with orcid id. Orcid is required, get your orcid id here: https://orcid.org/register</t>
+  </si>
+  <si>
+    <t>Enter your Orcid --&gt;</t>
+  </si>
+  <si>
+    <t>Review curation rules</t>
+  </si>
+  <si>
+    <t>To be sure your curations get incorporated, review our curation rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: </t>
+  </si>
+  <si>
+    <t>Step 6:</t>
+  </si>
+  <si>
+    <t>In table, enter the transcript ID or accession as mentioned in the paper. If colloquial gene names are used, try to find transcript ID or accession, like JQ425152, SMED30008505, and dd_Smed_v4_1757_0_1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,8 +403,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6EFFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,6 +829,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1142,402 +1199,511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="14" t="s">
+      <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:5" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F15"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location of Expression" prompt="Visit https://www.ebi.ac.uk/ols/ontologies/plana to identify a term" sqref="A16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location of Expression" prompt="Visit https://www.ebi.ac.uk/ols/ontologies/plana to identify a term" sqref="A24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="go to issue tracker" xr:uid="{492C7CD2-461F-5D44-8846-4E8AFBBDCB8D}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{A6DF2F35-1C84-9B41-A50A-28A96B7C36B1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Select from list" error="Select value from drop down list" promptTitle="Evidence Type" prompt="Select One">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Select from list" error="Select value from drop down list" promptTitle="Evidence Type" prompt="Select One" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Experimental Evidence Type'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E16:E49</xm:sqref>
+          <xm:sqref>F24:F57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Life Cycle Type" prompt="Select One">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Life Cycle Type" prompt="Select One" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Life Cycle Types'!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D16:D49</xm:sqref>
+          <xm:sqref>E24:E57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Specimen type" prompt="Select One">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Specimen type" prompt="Select One" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Specimen Types'!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C16:C49</xm:sqref>
+          <xm:sqref>D24:D57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1546,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1564,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1572,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1599,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1607,71 +1773,71 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1698,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1706,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1714,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1722,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1730,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
